--- a/node_5/Node_5_Results.xlsx
+++ b/node_5/Node_5_Results.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Abhishek\eclipse-workspace\Maekawa_Protocol\node_5\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{66F9F1D6-441E-4D17-8A06-ACD4C4C9A235}" xr6:coauthVersionLast="34" xr6:coauthVersionMax="34" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D5A9C22A-E74B-4ADF-AFBA-EE3133157916}" xr6:coauthVersionLast="34" xr6:coauthVersionMax="34" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="23040" windowHeight="9072" xr2:uid="{F85E9A49-3456-4A30-911A-96ABE5074028}"/>
   </bookViews>
@@ -30,7 +30,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="12" uniqueCount="12">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="13" uniqueCount="13">
   <si>
     <t>(5, 5)</t>
   </si>
@@ -66,6 +66,9 @@
   </si>
   <si>
     <t>ThPt</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Total Avg Resp Time: </t>
   </si>
 </sst>
 </file>
@@ -426,15 +429,18 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DAAA15B9-9C8B-4EC1-A27C-8538448566AA}">
-  <dimension ref="A1:C10"/>
+  <dimension ref="A1:D10"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="N17" sqref="N17"/>
+      <selection activeCell="D1" sqref="D1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="4" max="4" width="18.5546875" bestFit="1" customWidth="1"/>
+  </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
         <v>9</v>
       </c>
@@ -444,8 +450,11 @@
       <c r="C1" s="1" t="s">
         <v>11</v>
       </c>
-    </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D1" s="1" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>0</v>
       </c>
@@ -455,8 +464,11 @@
       <c r="C2">
         <v>1.7891968295432099</v>
       </c>
-    </row>
-    <row r="3" spans="1:3" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="D2">
+        <v>6701.3591457941702</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
         <v>1</v>
       </c>
@@ -466,8 +478,11 @@
       <c r="C3">
         <v>3.88560770904569</v>
       </c>
-    </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D3">
+        <v>3095.7676980135102</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
         <v>2</v>
       </c>
@@ -477,8 +492,11 @@
       <c r="C4">
         <v>2.1869682933336798</v>
       </c>
-    </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D4">
+        <v>5465.8216159460699</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
         <v>3</v>
       </c>
@@ -488,8 +506,11 @@
       <c r="C5">
         <v>2.5604391665258399</v>
       </c>
-    </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D5">
+        <v>4674.2328168131498</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
         <v>4</v>
       </c>
@@ -499,8 +520,11 @@
       <c r="C6">
         <v>10.5154682538013</v>
       </c>
-    </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D6">
+        <v>1114.3515114565801</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
         <v>5</v>
       </c>
@@ -510,8 +534,11 @@
       <c r="C7">
         <v>7.87848228917181</v>
       </c>
-    </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D7">
+        <v>1485.26783518772</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
         <v>6</v>
       </c>
@@ -521,8 +548,11 @@
       <c r="C8">
         <v>3.2782800831371799</v>
       </c>
-    </row>
-    <row r="9" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D8">
+        <v>3583.9184778743002</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A9" t="s">
         <v>8</v>
       </c>
@@ -532,8 +562,11 @@
       <c r="C9">
         <v>8.8110384689939494</v>
       </c>
-    </row>
-    <row r="10" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D9">
+        <v>1292.97088858405</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A10" t="s">
         <v>7</v>
       </c>
@@ -542,6 +575,9 @@
       </c>
       <c r="C10">
         <v>1.9678376612642901</v>
+      </c>
+      <c r="D10">
+        <v>6034.1718504970404</v>
       </c>
     </row>
   </sheetData>
